--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DE6E2A-AF46-4131-A694-A7C8BE492D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772A9DFC-9841-4BCD-A770-1653DE8F50B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -524,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5">
         <v>44938</v>
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5">
         <v>45089</v>
@@ -550,7 +550,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5">
         <v>45150</v>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
@@ -576,7 +576,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>8</v>
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>9</v>
@@ -602,7 +602,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
@@ -616,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>11</v>
@@ -630,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -646,7 +646,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>13</v>
@@ -658,7 +658,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>14</v>
@@ -672,7 +672,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>15</v>
@@ -684,7 +684,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>16</v>
@@ -698,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5">
         <v>45018</v>
@@ -712,7 +712,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="5">
         <v>45171</v>
@@ -724,7 +724,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="5">
         <v>45232</v>
@@ -738,7 +738,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>17</v>
@@ -750,7 +750,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>18</v>
@@ -764,7 +764,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>19</v>
@@ -776,7 +776,7 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>20</v>
@@ -790,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>21</v>
@@ -802,7 +802,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="5">
         <v>44929</v>
@@ -816,7 +816,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="5">
         <v>45080</v>
@@ -828,7 +828,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5">
         <v>45141</v>
@@ -842,7 +842,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>22</v>
@@ -856,7 +856,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>23</v>
@@ -868,6 +868,7 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772A9DFC-9841-4BCD-A770-1653DE8F50B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8619644-FFEC-4A1E-B108-5A7FFE13EE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">هفته </t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>فرجه های امتحان</t>
+  </si>
+  <si>
+    <t>00-Introduction to Computation and Programming</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -166,16 +169,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,430 +463,433 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>44938</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>45089</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>45150</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>45018</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>45171</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>45232</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="A20" s="6">
         <v>13</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>18</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+      <c r="A22" s="6">
         <v>14</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="A24" s="6">
         <v>15</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>22</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2">
         <v>23</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>44929</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+      <c r="A26" s="6">
         <v>16</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>24</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>45080</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2">
         <v>25</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>45141</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>17</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>26</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>18</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>27</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="4"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8619644-FFEC-4A1E-B108-5A7FFE13EE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D011D7F3-8144-4F4A-8186-519BC87485F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">هفته </t>
   </si>
@@ -108,7 +108,13 @@
     <t>فرجه های امتحان</t>
   </si>
   <si>
-    <t>00-Introduction to Computation and Programming</t>
+    <t>01- Introduction to Computer System</t>
+  </si>
+  <si>
+    <t>00-Introduction to Programming Applications with Python</t>
+  </si>
+  <si>
+    <t>02- Introduction to Programming</t>
   </si>
 </sst>
 </file>
@@ -464,14 +470,14 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -507,7 +513,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -522,7 +528,9 @@
         <v>6</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -536,7 +544,9 @@
         <v>44938</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D011D7F3-8144-4F4A-8186-519BC87485F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A9DCDE-66D1-4754-91C9-D8830AB8A3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -890,16 +890,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A9DCDE-66D1-4754-91C9-D8830AB8A3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF5C48E-B0C9-46D4-A78F-34700BD98C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t xml:space="preserve">هفته </t>
   </si>
@@ -114,7 +114,97 @@
     <t>00-Introduction to Programming Applications with Python</t>
   </si>
   <si>
-    <t>02- Introduction to Programming</t>
+    <t>کارگاه</t>
+  </si>
+  <si>
+    <t>05- Control and Loop Structures</t>
+  </si>
+  <si>
+    <t>03- How We Can Represent a Problem?</t>
+  </si>
+  <si>
+    <t>04- Introduction to Objects in Python</t>
+  </si>
+  <si>
+    <t>06- Control and Loop Structures</t>
+  </si>
+  <si>
+    <t>08- The Most Important Data Structures in Python?</t>
+  </si>
+  <si>
+    <t>09- The Most Important Data Structures in Python?</t>
+  </si>
+  <si>
+    <t>14- Exceptions Handling</t>
+  </si>
+  <si>
+    <t>15- What is Object-oriented Programming?</t>
+  </si>
+  <si>
+    <t>16- What is Object-oriented Programming?</t>
+  </si>
+  <si>
+    <t>17- How We Can Evaluate Our Code?</t>
+  </si>
+  <si>
+    <t>18- What are Modules, Packages, and Libraries?</t>
+  </si>
+  <si>
+    <t>19- Visualization for Presentation and better Understanding!</t>
+  </si>
+  <si>
+    <t>20- Simple Text Processing in Python!</t>
+  </si>
+  <si>
+    <t>21- What is Numerical Calculation?</t>
+  </si>
+  <si>
+    <t>22- We Can Read and Analyse any Data with Python</t>
+  </si>
+  <si>
+    <t>23- We Can Read and Analyse any Data with Python</t>
+  </si>
+  <si>
+    <t>مهمان</t>
+  </si>
+  <si>
+    <t>Review!</t>
+  </si>
+  <si>
+    <t>10- Different General Methods in Algorithms Design</t>
+  </si>
+  <si>
+    <t>11- Different General Methods in Algorithms Design</t>
+  </si>
+  <si>
+    <t>12- Different General Methods in Algorithms Design</t>
+  </si>
+  <si>
+    <t>13- Different General Methods in Algorithms Design</t>
+  </si>
+  <si>
+    <t>گیت و گیت هاب (2)</t>
+  </si>
+  <si>
+    <t>سایکیت لرن (1)</t>
+  </si>
+  <si>
+    <t>دسک (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروژه </t>
+  </si>
+  <si>
+    <t>07- What is Function?</t>
+  </si>
+  <si>
+    <t>واسط گرافیکی (1)</t>
+  </si>
+  <si>
+    <t>داکر (1)</t>
+  </si>
+  <si>
+    <t>02- Introduction to Programming with Python</t>
   </si>
 </sst>
 </file>
@@ -467,21 +557,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="51.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -500,8 +592,14 @@
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -517,7 +615,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -533,7 +631,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -545,11 +643,11 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -560,10 +658,12 @@
         <v>45089</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="2">
         <v>4</v>
@@ -572,10 +672,15 @@
         <v>45150</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -586,10 +691,12 @@
         <v>7</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="2">
         <v>6</v>
@@ -598,10 +705,12 @@
         <v>8</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -612,10 +721,14 @@
         <v>9</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="2">
         <v>8</v>
@@ -624,10 +737,12 @@
         <v>10</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -638,10 +753,12 @@
         <v>11</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -654,10 +771,12 @@
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -668,10 +787,15 @@
         <v>13</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="2">
         <v>12</v>
@@ -680,10 +804,14 @@
         <v>14</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -694,10 +822,15 @@
         <v>15</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="2">
         <v>14</v>
@@ -706,10 +839,12 @@
         <v>16</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>11</v>
       </c>
@@ -720,10 +855,12 @@
         <v>45018</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -734,10 +871,12 @@
         <v>45171</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="2">
         <v>17</v>
@@ -746,10 +885,12 @@
         <v>45232</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>13</v>
       </c>
@@ -760,10 +901,20 @@
         <v>17</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="2">
         <v>19</v>
@@ -772,10 +923,12 @@
         <v>18</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>14</v>
       </c>
@@ -786,10 +939,12 @@
         <v>19</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="2">
         <v>21</v>
@@ -798,10 +953,12 @@
         <v>20</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>15</v>
       </c>
@@ -812,10 +969,15 @@
         <v>21</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="2">
         <v>23</v>
@@ -824,10 +986,14 @@
         <v>44929</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>16</v>
       </c>
@@ -838,10 +1004,12 @@
         <v>45080</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="2">
         <v>25</v>
@@ -850,10 +1018,12 @@
         <v>45141</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>17</v>
       </c>
@@ -864,10 +1034,12 @@
         <v>22</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>18</v>
       </c>
@@ -880,10 +1052,17 @@
       <c r="D29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF5C48E-B0C9-46D4-A78F-34700BD98C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D71743-7F42-4009-836A-F277BF8D9EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -201,10 +210,10 @@
     <t>واسط گرافیکی (1)</t>
   </si>
   <si>
-    <t>داکر (1)</t>
-  </si>
-  <si>
     <t>02- Introduction to Programming with Python</t>
+  </si>
+  <si>
+    <t>نحوه ذخیره سازی مقادیر در کامپیوتر (1)</t>
   </si>
 </sst>
 </file>
@@ -559,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,7 +578,7 @@
     <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -643,7 +652,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -676,9 +685,6 @@
         <v>32</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
@@ -695,6 +701,9 @@
         <v>30</v>
       </c>
       <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
@@ -741,6 +750,9 @@
         <v>34</v>
       </c>
       <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
@@ -791,9 +803,6 @@
         <v>49</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
@@ -908,7 +917,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D71743-7F42-4009-836A-F277BF8D9EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C034D8B-373E-4C89-B5B4-B77C58896D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,12 +138,6 @@
     <t>06- Control and Loop Structures</t>
   </si>
   <si>
-    <t>08- The Most Important Data Structures in Python?</t>
-  </si>
-  <si>
-    <t>09- The Most Important Data Structures in Python?</t>
-  </si>
-  <si>
     <t>14- Exceptions Handling</t>
   </si>
   <si>
@@ -214,6 +208,12 @@
   </si>
   <si>
     <t>نحوه ذخیره سازی مقادیر در کامپیوتر (1)</t>
+  </si>
+  <si>
+    <t>08- The Most Important Data Structures in Python</t>
+  </si>
+  <si>
+    <t>09- The Most Important Data Structures in Python</t>
   </si>
 </sst>
 </file>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,7 +605,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -652,7 +652,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -702,7 +702,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -747,11 +747,11 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -766,7 +766,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -784,7 +784,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
@@ -832,7 +832,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="1">
@@ -849,7 +849,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -911,13 +911,13 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2">
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -933,7 +933,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -979,11 +979,11 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -996,7 +996,7 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F25" s="2">
         <v>4</v>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -1062,13 +1062,13 @@
         <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F29" s="2">
         <v>5</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1078,16 +1078,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C034D8B-373E-4C89-B5B4-B77C58896D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9078867C-9ADA-448F-8C47-77204323C499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t xml:space="preserve">هفته </t>
   </si>
@@ -105,18 +105,9 @@
     <t>13/3</t>
   </si>
   <si>
-    <t>20/3</t>
-  </si>
-  <si>
     <t>توضیحات</t>
   </si>
   <si>
-    <t>نگردیم؟:)</t>
-  </si>
-  <si>
-    <t>فرجه های امتحان</t>
-  </si>
-  <si>
     <t>01- Introduction to Computer System</t>
   </si>
   <si>
@@ -168,9 +159,6 @@
     <t>23- We Can Read and Analyse any Data with Python</t>
   </si>
   <si>
-    <t>مهمان</t>
-  </si>
-  <si>
     <t>Review!</t>
   </si>
   <si>
@@ -214,6 +202,30 @@
   </si>
   <si>
     <t>09- The Most Important Data Structures in Python</t>
+  </si>
+  <si>
+    <t>مهمان (سینا)</t>
+  </si>
+  <si>
+    <t>مهمان (مسعود)</t>
+  </si>
+  <si>
+    <t>17/3</t>
+  </si>
+  <si>
+    <t>کلاس جبرانی</t>
+  </si>
+  <si>
+    <t>مجازی برگزار میشود</t>
+  </si>
+  <si>
+    <t>هیبریدی برگزار میشود</t>
+  </si>
+  <si>
+    <t>قراره که درباره این تاریخ هم با دانشکده مشورت و صحبت کنم</t>
+  </si>
+  <si>
+    <t>!گردش فناورانه</t>
   </si>
 </sst>
 </file>
@@ -568,14 +580,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="1"/>
     <col min="7" max="7" width="27.453125" style="1" bestFit="1" customWidth="1"/>
@@ -593,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -602,10 +614,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -620,7 +632,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -636,7 +648,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -652,7 +664,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -668,7 +680,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -682,7 +694,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -698,11 +710,11 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -715,7 +727,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -729,9 +741,11 @@
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -745,13 +759,15 @@
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -764,9 +780,11 @@
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -781,10 +799,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -800,7 +818,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -814,7 +832,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
@@ -832,7 +850,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="1">
@@ -849,7 +867,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -865,7 +883,7 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -881,7 +899,7 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -895,7 +913,7 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -911,13 +929,13 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F20" s="2">
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -933,7 +951,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -949,7 +967,7 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -963,7 +981,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -979,11 +997,11 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -996,7 +1014,7 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2">
         <v>4</v>
@@ -1014,7 +1032,7 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -1028,7 +1046,7 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -1044,7 +1062,7 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -1056,19 +1074,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F29" s="2">
         <v>5</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1078,16 +1096,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9078867C-9ADA-448F-8C47-77204323C499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BFB907-E02A-4978-825E-BBFB83CF0458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BFB907-E02A-4978-825E-BBFB83CF0458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC56B52-C557-4E31-8E3E-05B7BEF2563C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t xml:space="preserve">هفته </t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>!گردش فناورانه</t>
+  </si>
+  <si>
+    <t>بیان تجربیات ایمان</t>
+  </si>
+  <si>
+    <t>هماهنگی با مرکز کارآفرینی دانشگاه</t>
   </si>
 </sst>
 </file>
@@ -580,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1012,7 +1018,9 @@
       <c r="C25" s="4">
         <v>44929</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>40</v>
       </c>
@@ -1060,7 +1068,9 @@
       <c r="C28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>63</v>
       </c>
@@ -1096,16 +1106,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC56B52-C557-4E31-8E3E-05B7BEF2563C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E71F99E-177C-4E2F-B677-AB41F0E2B1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1106,16 +1106,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E71F99E-177C-4E2F-B677-AB41F0E2B1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07629C8-A167-4768-A7D5-897A55DAAD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,9 +207,6 @@
     <t>مهمان (سینا)</t>
   </si>
   <si>
-    <t>مهمان (مسعود)</t>
-  </si>
-  <si>
     <t>17/3</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>هماهنگی با مرکز کارآفرینی دانشگاه</t>
+  </si>
+  <si>
+    <t>مهمان (فرناز و مسعود)</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>50</v>
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>54</v>
@@ -787,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>55</v>
@@ -805,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>42</v>
@@ -1019,7 +1019,7 @@
         <v>44929</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>40</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -1069,10 +1069,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -1084,10 +1084,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>41</v>
@@ -1106,16 +1106,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07629C8-A167-4768-A7D5-897A55DAAD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05E6184-D9A6-4EB0-83C9-4B86710D0C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,51 +129,12 @@
     <t>06- Control and Loop Structures</t>
   </si>
   <si>
-    <t>14- Exceptions Handling</t>
-  </si>
-  <si>
-    <t>15- What is Object-oriented Programming?</t>
-  </si>
-  <si>
-    <t>16- What is Object-oriented Programming?</t>
-  </si>
-  <si>
-    <t>17- How We Can Evaluate Our Code?</t>
-  </si>
-  <si>
-    <t>18- What are Modules, Packages, and Libraries?</t>
-  </si>
-  <si>
-    <t>19- Visualization for Presentation and better Understanding!</t>
-  </si>
-  <si>
-    <t>20- Simple Text Processing in Python!</t>
-  </si>
-  <si>
-    <t>21- What is Numerical Calculation?</t>
-  </si>
-  <si>
-    <t>22- We Can Read and Analyse any Data with Python</t>
-  </si>
-  <si>
-    <t>23- We Can Read and Analyse any Data with Python</t>
-  </si>
-  <si>
-    <t>Review!</t>
-  </si>
-  <si>
     <t>10- Different General Methods in Algorithms Design</t>
   </si>
   <si>
     <t>11- Different General Methods in Algorithms Design</t>
   </si>
   <si>
-    <t>12- Different General Methods in Algorithms Design</t>
-  </si>
-  <si>
-    <t>13- Different General Methods in Algorithms Design</t>
-  </si>
-  <si>
     <t>گیت و گیت هاب (2)</t>
   </si>
   <si>
@@ -204,9 +165,6 @@
     <t>09- The Most Important Data Structures in Python</t>
   </si>
   <si>
-    <t>مهمان (سینا)</t>
-  </si>
-  <si>
     <t>17/3</t>
   </si>
   <si>
@@ -219,19 +177,61 @@
     <t>هیبریدی برگزار میشود</t>
   </si>
   <si>
-    <t>قراره که درباره این تاریخ هم با دانشکده مشورت و صحبت کنم</t>
-  </si>
-  <si>
-    <t>!گردش فناورانه</t>
-  </si>
-  <si>
     <t>بیان تجربیات ایمان</t>
   </si>
   <si>
     <t>هماهنگی با مرکز کارآفرینی دانشگاه</t>
   </si>
   <si>
-    <t>مهمان (فرناز و مسعود)</t>
+    <t>12- Exceptions Handling</t>
+  </si>
+  <si>
+    <t>13- What is Object-oriented Programming?</t>
+  </si>
+  <si>
+    <t>14- What is Object-oriented Programming?</t>
+  </si>
+  <si>
+    <t>15- How We Can Evaluate Our Code?</t>
+  </si>
+  <si>
+    <t>16- What are Modules, Packages, and Libraries?</t>
+  </si>
+  <si>
+    <t>17- Visualization for Presentation and better Understanding!</t>
+  </si>
+  <si>
+    <t>18- Simple Text Processing in Python!</t>
+  </si>
+  <si>
+    <t>19- What is Numerical Calculation?</t>
+  </si>
+  <si>
+    <t>20- We Can Read and Analyse any Data with Python</t>
+  </si>
+  <si>
+    <t>21- We Can Read and Analyse any Data with Python</t>
+  </si>
+  <si>
+    <t>مجازی برگزار میشود (تعطیل شد)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24 !گردش فناورانه</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25- Review!</t>
+  </si>
+  <si>
+    <t>مهمان (مسعود و سینا) 22</t>
+  </si>
+  <si>
+    <t>مهمان (فرناز) 23</t>
+  </si>
+  <si>
+    <t>مجازی حضوری</t>
+  </si>
+  <si>
+    <t>مرور و پرسش و پاسخ</t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +268,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,8 +313,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,7 +653,7 @@
         <v>26</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -670,12 +700,12 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -691,7 +721,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -705,7 +735,7 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -720,11 +750,11 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -738,7 +768,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="2">
@@ -748,17 +778,17 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -766,54 +796,54 @@
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="E11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="D12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
       <c r="B13" s="2">
@@ -824,12 +854,12 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -838,14 +868,14 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="A15" s="9">
         <v>10</v>
       </c>
       <c r="B15" s="2">
@@ -856,7 +886,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="1">
@@ -864,7 +894,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -873,7 +903,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -889,12 +919,12 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="A18" s="9">
         <v>12</v>
       </c>
       <c r="B18" s="2">
@@ -905,12 +935,12 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -919,12 +949,12 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+      <c r="A20" s="9">
         <v>13</v>
       </c>
       <c r="B20" s="2">
@@ -935,20 +965,20 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2">
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -957,12 +987,12 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+      <c r="A22" s="9">
         <v>14</v>
       </c>
       <c r="B22" s="2">
@@ -973,12 +1003,12 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -987,12 +1017,12 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+      <c r="A24" s="9">
         <v>15</v>
       </c>
       <c r="B24" s="2">
@@ -1003,15 +1033,15 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -1019,17 +1049,17 @@
         <v>44929</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
+      <c r="A26" s="9">
         <v>16</v>
       </c>
       <c r="B26" s="2">
@@ -1040,12 +1070,12 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -1054,7 +1084,7 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -1069,10 +1099,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -1084,19 +1114,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2">
         <v>5</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1118,5 +1148,6 @@
     <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05E6184-D9A6-4EB0-83C9-4B86710D0C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88832EC0-129E-4F1F-956F-1D572DF311F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,9 +222,6 @@
     <t xml:space="preserve"> 25- Review!</t>
   </si>
   <si>
-    <t>مهمان (مسعود و سینا) 22</t>
-  </si>
-  <si>
     <t>مهمان (فرناز) 23</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>مرور و پرسش و پاسخ</t>
+  </si>
+  <si>
+    <t>مهمان (مسعود) 22</t>
   </si>
 </sst>
 </file>
@@ -322,9 +322,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,6 +330,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,7 +705,7 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -721,7 +721,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -754,7 +754,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+      <c r="A9" s="12">
         <v>6</v>
       </c>
       <c r="B9" s="2">
@@ -788,7 +788,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -824,26 +824,26 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
+    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="A13" s="12">
         <v>9</v>
       </c>
       <c r="B13" s="2">
@@ -859,7 +859,7 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -875,7 +875,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="A15" s="12">
         <v>10</v>
       </c>
       <c r="B15" s="2">
@@ -894,7 +894,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -924,7 +924,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
+      <c r="A18" s="12">
         <v>12</v>
       </c>
       <c r="B18" s="2">
@@ -940,7 +940,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+      <c r="A20" s="12">
         <v>13</v>
       </c>
       <c r="B20" s="2">
@@ -978,7 +978,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -992,7 +992,7 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
+      <c r="A22" s="12">
         <v>14</v>
       </c>
       <c r="B22" s="2">
@@ -1008,7 +1008,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
+      <c r="A24" s="12">
         <v>15</v>
       </c>
       <c r="B24" s="2">
@@ -1041,7 +1041,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -1059,7 +1059,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
+      <c r="A26" s="12">
         <v>16</v>
       </c>
       <c r="B26" s="2">
@@ -1070,12 +1070,12 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -1136,16 +1136,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88832EC0-129E-4F1F-956F-1D572DF311F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275161CA-A908-4027-A506-999C30C4A6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -231,7 +232,7 @@
     <t>مرور و پرسش و پاسخ</t>
   </si>
   <si>
-    <t>مهمان (مسعود) 22</t>
+    <t>مهمان (سینا و مسعود ) 22</t>
   </si>
 </sst>
 </file>
@@ -616,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1136,16 +1137,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275161CA-A908-4027-A506-999C30C4A6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF597BA-F5FC-482C-9D68-C8C01B47D72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -617,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1137,16 +1136,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF597BA-F5FC-482C-9D68-C8C01B47D72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED342DB-16C6-44C0-B159-BCA2C06DD878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t xml:space="preserve">هفته </t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>مهمان (سینا و مسعود ) 22</t>
+  </si>
+  <si>
+    <t>اماده نبودن شرایط پرژکتور، مشکل از دانشگاه! جلسه کنسل شد و یکم گپ زدیم</t>
   </si>
 </sst>
 </file>
@@ -614,17 +617,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E13" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="41.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="1"/>
     <col min="7" max="7" width="27.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="1"/>
@@ -939,213 +942,223 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
-      <c r="B19" s="2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>45232</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12">
+        <v>13</v>
+      </c>
       <c r="B21" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>14</v>
-      </c>
+      <c r="A22" s="12"/>
       <c r="B22" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
+      <c r="A23" s="12">
+        <v>14</v>
+      </c>
       <c r="B23" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <v>15</v>
-      </c>
+      <c r="A24" s="12"/>
       <c r="B24" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="12"/>
+      <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C26" s="4">
         <v>44929</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F26" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="12">
         <v>16</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <v>45080</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="2">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4">
-        <v>45141</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="12"/>
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4">
+        <v>45141</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>17</v>
-      </c>
-      <c r="B28" s="2">
-        <v>26</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>18</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F30" s="2">
         <v>5</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED342DB-16C6-44C0-B159-BCA2C06DD878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDFF904-E766-4B04-85F1-2AEFB3B4A577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E13" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1149,16 +1149,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDFF904-E766-4B04-85F1-2AEFB3B4A577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943E0092-89DC-4EC8-B482-23A8D8543BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t xml:space="preserve">هفته </t>
   </si>
@@ -168,21 +168,12 @@
     <t>17/3</t>
   </si>
   <si>
-    <t>کلاس جبرانی</t>
-  </si>
-  <si>
     <t>مجازی برگزار میشود</t>
   </si>
   <si>
     <t>هیبریدی برگزار میشود</t>
   </si>
   <si>
-    <t>بیان تجربیات ایمان</t>
-  </si>
-  <si>
-    <t>هماهنگی با مرکز کارآفرینی دانشگاه</t>
-  </si>
-  <si>
     <t>12- Exceptions Handling</t>
   </si>
   <si>
@@ -222,9 +213,6 @@
     <t xml:space="preserve"> 25- Review!</t>
   </si>
   <si>
-    <t>مهمان (فرناز) 23</t>
-  </si>
-  <si>
     <t>مجازی حضوری</t>
   </si>
   <si>
@@ -235,6 +223,33 @@
   </si>
   <si>
     <t>اماده نبودن شرایط پرژکتور، مشکل از دانشگاه! جلسه کنسل شد و یکم گپ زدیم</t>
+  </si>
+  <si>
+    <t>matplotlib numpy</t>
+  </si>
+  <si>
+    <t>مهمان (شرکت دسته جمعی در جلسه دکتر شهشهانی در مورد ریاضیات ایران) 23</t>
+  </si>
+  <si>
+    <t>file + الگوریتم مرتب سازی ادغامی</t>
+  </si>
+  <si>
+    <t>NLTK re hazm + دستور continue</t>
+  </si>
+  <si>
+    <t>pandas + اسکرپینگ</t>
+  </si>
+  <si>
+    <t>numpy scipy +  محاسبه مرتبه زمانی O(.)</t>
+  </si>
+  <si>
+    <t>امتحان پایان ترم سوم تیرماه ساعت 15:30 در --- برگزار میشود!</t>
+  </si>
+  <si>
+    <t>مرور (اختیاری بر اساس دانشجویان)</t>
+  </si>
+  <si>
+    <t>به سه شنبه 6 تیر و بعد از امتحان ها موکول شد.</t>
   </si>
 </sst>
 </file>
@@ -244,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +275,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Kalameh"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +307,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -299,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,6 +363,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,16 +647,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="41.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="1"/>
     <col min="7" max="7" width="27.453125" style="1" bestFit="1" customWidth="1"/>
@@ -781,7 +811,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>37</v>
@@ -799,7 +829,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>41</v>
@@ -820,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>42</v>
@@ -838,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -906,7 +936,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -922,7 +952,7 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -938,7 +968,7 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -948,7 +978,7 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F19" s="9"/>
     </row>
@@ -962,7 +992,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -978,7 +1008,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2">
         <v>3</v>
@@ -998,9 +1028,11 @@
       <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -1014,9 +1046,8 @@
       <c r="C23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2" t="s">
-        <v>55</v>
+      <c r="E23" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -1028,9 +1059,11 @@
       <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -1044,9 +1077,11 @@
       <c r="C25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1" t="s">
@@ -1062,10 +1097,10 @@
         <v>44929</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2">
         <v>4</v>
@@ -1083,7 +1118,7 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -1095,9 +1130,11 @@
       <c r="C28" s="4">
         <v>45141</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -1112,10 +1149,10 @@
         <v>22</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2"/>
     </row>
@@ -1130,10 +1167,10 @@
         <v>43</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F30" s="2">
         <v>5</v>
@@ -1147,18 +1184,23 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
+    <row r="32" spans="1:8" ht="23.5" x14ac:dyDescent="0.9">
+      <c r="D32" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943E0092-89DC-4EC8-B482-23A8D8543BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7224354A-217E-46EA-8490-DF100B01EF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t xml:space="preserve">هفته </t>
   </si>
@@ -141,9 +141,6 @@
     <t>سایکیت لرن (1)</t>
   </si>
   <si>
-    <t>دسک (1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">پروژه </t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>09- The Most Important Data Structures in Python</t>
   </si>
   <si>
-    <t>17/3</t>
-  </si>
-  <si>
     <t>مجازی برگزار میشود</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
     <t>17- Visualization for Presentation and better Understanding!</t>
   </si>
   <si>
-    <t>18- Simple Text Processing in Python!</t>
-  </si>
-  <si>
     <t>19- What is Numerical Calculation?</t>
   </si>
   <si>
@@ -210,9 +201,6 @@
     <t xml:space="preserve">  24 !گردش فناورانه</t>
   </si>
   <si>
-    <t xml:space="preserve"> 25- Review!</t>
-  </si>
-  <si>
     <t>مجازی حضوری</t>
   </si>
   <si>
@@ -246,10 +234,10 @@
     <t>امتحان پایان ترم سوم تیرماه ساعت 15:30 در --- برگزار میشود!</t>
   </si>
   <si>
-    <t>مرور (اختیاری بر اساس دانشجویان)</t>
-  </si>
-  <si>
     <t>به سه شنبه 6 تیر و بعد از امتحان ها موکول شد.</t>
+  </si>
+  <si>
+    <t>18- Introduction to NLP in Python!</t>
   </si>
 </sst>
 </file>
@@ -361,11 +349,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,7 +638,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,7 +674,7 @@
         <v>26</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -733,12 +721,12 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -754,7 +742,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -768,7 +756,7 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -783,11 +771,11 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -801,7 +789,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9" s="2">
@@ -811,17 +799,17 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -829,10 +817,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
@@ -850,10 +838,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="6"/>
     </row>
@@ -868,15 +856,15 @@
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>9</v>
       </c>
       <c r="B13" s="2">
@@ -887,12 +875,12 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -908,7 +896,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>10</v>
       </c>
       <c r="B15" s="2">
@@ -927,7 +915,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -936,7 +924,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -952,12 +940,12 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>12</v>
       </c>
       <c r="B18" s="2">
@@ -968,22 +956,22 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -992,12 +980,12 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
+      <c r="A21" s="13">
         <v>13</v>
       </c>
       <c r="B21" s="2">
@@ -1008,20 +996,20 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2">
         <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -1029,15 +1017,15 @@
         <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
+      <c r="A23" s="13">
         <v>14</v>
       </c>
       <c r="B23" s="2">
@@ -1047,12 +1035,12 @@
         <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -1060,15 +1048,15 @@
         <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
+      <c r="A25" s="13">
         <v>15</v>
       </c>
       <c r="B25" s="2">
@@ -1078,10 +1066,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1" t="s">
@@ -1089,7 +1077,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -1097,17 +1085,17 @@
         <v>44929</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <v>16</v>
       </c>
       <c r="B27" s="2">
@@ -1118,12 +1106,12 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -1131,10 +1119,10 @@
         <v>45141</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -1149,35 +1137,20 @@
         <v>22</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>18</v>
-      </c>
-      <c r="B30" s="2">
-        <v>27</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="2">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
@@ -1185,22 +1158,22 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="23.5" x14ac:dyDescent="0.9">
-      <c r="D32" s="13" t="s">
-        <v>69</v>
+      <c r="D32" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course TimeSheet.xlsx
+++ b/Course TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharif University\Fundamental Programming with Python 1401\Course1401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7224354A-217E-46EA-8490-DF100B01EF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A821367-2697-4662-B5E8-7F2CD836210C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,22 +222,22 @@
     <t>file + الگوریتم مرتب سازی ادغامی</t>
   </si>
   <si>
-    <t>NLTK re hazm + دستور continue</t>
-  </si>
-  <si>
     <t>pandas + اسکرپینگ</t>
   </si>
   <si>
     <t>numpy scipy +  محاسبه مرتبه زمانی O(.)</t>
   </si>
   <si>
-    <t>امتحان پایان ترم سوم تیرماه ساعت 15:30 در --- برگزار میشود!</t>
-  </si>
-  <si>
     <t>به سه شنبه 6 تیر و بعد از امتحان ها موکول شد.</t>
   </si>
   <si>
     <t>18- Introduction to NLP in Python!</t>
+  </si>
+  <si>
+    <t>re + دستور continue + الگوریتم مرتب سازی ادغامی + مقدمه بر پردازش زبان</t>
+  </si>
+  <si>
+    <t>امتحان پایان ترم سوم تیرماه ساعت 14:30 در تالار 6 برگزار میشود!</t>
   </si>
 </sst>
 </file>
@@ -638,7 +638,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1048,7 +1048,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>50</v>
@@ -1085,7 +1085,7 @@
         <v>44929</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>52</v>
@@ -1119,10 +1119,10 @@
         <v>45141</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -1137,7 +1137,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>54</v>
@@ -1159,21 +1159,21 @@
     </row>
     <row r="32" spans="1:8" ht="23.5" x14ac:dyDescent="0.9">
       <c r="D32" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
